--- a/Deepesh/PythonProgramming/PythonFileHandling/excel_files_operation/test_data.xlsx
+++ b/Deepesh/PythonProgramming/PythonFileHandling/excel_files_operation/test_data.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -394,8 +395,8 @@
   </sheetPr>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -468,6 +469,17 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5*1</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,6 +490,17 @@
       <c r="B3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5*2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +511,17 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5*3</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -498,6 +532,17 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5*4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -508,6 +553,17 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5*5</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -518,6 +574,17 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5*6</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +595,17 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5*7</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -538,6 +616,17 @@
       <c r="B9" t="n">
         <v>11</v>
       </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5*8</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -548,12 +637,34 @@
       <c r="B10" t="n">
         <v>12</v>
       </c>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5*9</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>Bangalore</t>
         </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5*10</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -819,4 +930,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5*1</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5*2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5*3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5*4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5*5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5*6</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5*7</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5*8</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5*9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5*10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Deepesh/PythonProgramming/PythonFileHandling/excel_files_operation/test_data.xlsx
+++ b/Deepesh/PythonProgramming/PythonFileHandling/excel_files_operation/test_data.xlsx
@@ -1,34 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +66,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -203,7 +160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -380,373 +337,352 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13.21875" customWidth="1" min="1" max="1"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" min="5" max="17"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>45330</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>45331</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>45332</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>45333</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>45334</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>45335</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>45336</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>45337</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>45338</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>45339</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>45340</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>45341</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>45342</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>45343</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>45344</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
       </c>
       <c r="B12">
         <f>SUM(B2:B10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
-      <c r="P13" s="1" t="n"/>
-      <c r="Q13" s="1" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>23</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>34</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>45</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>56</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>67</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>78</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>89</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>100</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>111</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>122</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>133</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>144</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>155</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>166</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>177</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>188</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>199</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>210</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>221</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>232</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>243</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>254</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>265</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>276</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>287</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>298</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>309</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>320</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>331</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>342</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>353</v>
       </c>
     </row>
@@ -756,63 +692,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>123</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>345</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>567</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>789</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>1011</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>1233</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>1455</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>1677</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1">
         <v>1899</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1">
         <v>2121</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1">
         <v>2343</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1">
         <v>2565</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1">
         <v>2787</v>
       </c>
-      <c r="N1" t="n">
+      <c r="N1">
         <v>3009</v>
       </c>
-      <c r="O1" t="n">
+      <c r="O1">
         <v>3231</v>
       </c>
     </row>

--- a/Deepesh/PythonProgramming/PythonFileHandling/excel_files_operation/test_data.xlsx
+++ b/Deepesh/PythonProgramming/PythonFileHandling/excel_files_operation/test_data.xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\Sushmitashastri23\Newpython\GTM_PS_Batch04\Deepesh\PythonProgramming\PythonFileHandling\excel_files_operation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B186814E-FB2C-41C8-A45B-309BB9FF5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,6 +94,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,36 +357,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" customWidth="1"/>
+    <col min="11" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +439,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -435,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -443,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -451,7 +471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -459,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -467,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -475,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -483,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -491,12 +511,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -505,7 +525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -526,162 +546,162 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>353</v>
       </c>
@@ -692,14 +712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>123</v>
       </c>
